--- a/va_facility_data_2025-02-20/McComb VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McComb%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/McComb VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McComb%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R22021c5707644106b910da40f61a5a2e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7dd1980554de44e6a564dd011ecfc23f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfc7a9558623d4b9eb8eb60e8202395d6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb31259d8a00a4621b642e349d032d73f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1718f2542eda4c3cbd80daeb89178c53"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R16335902c24b41f6a85c04afadd0f1f4"/>
   </x:sheets>
 </x:workbook>
 </file>
